--- a/bases/Interface_A.xlsx
+++ b/bases/Interface_A.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://institutogerminare-my.sharepoint.com/personal/luca_lucareli_germinare_org_br/Documents/Área de Trabalho/Germinare/Escola/2TECH/TECH/Interdiciplinar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://institutogerminare-my.sharepoint.com/personal/olivia_domingues_germinare_org_br/Documents/Área de Trabalho/G - TECH 2/Interdisciplinar/incluses_testeAB/bases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{58D741B3-E143-4186-8BD1-FE9365E31EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEB77458-15F4-4816-82D8-581081D3A89F}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{58D741B3-E143-4186-8BD1-FE9365E31EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF855126-DAA9-462D-A859-AB27AC6D2D56}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{64A13A6E-BE45-467C-805A-590370F5C0C0}"/>
+    <workbookView xWindow="5190" yWindow="120" windowWidth="14010" windowHeight="8850" xr2:uid="{64A13A6E-BE45-467C-805A-590370F5C0C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -127,9 +126,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -167,7 +166,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -273,7 +272,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -415,7 +414,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -423,20 +422,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7416DB1-3AAD-4E63-8FFF-89B2D803CDCA}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>28.83</v>
       </c>
@@ -470,624 +469,463 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>82.58</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10.89</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6.44</v>
+      </c>
+      <c r="C3" s="2">
+        <v>15.92</v>
+      </c>
+      <c r="D3" s="2">
+        <v>11.79</v>
+      </c>
+      <c r="E3" s="2">
+        <v>24.61</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>5.59</v>
+        <v>52.08</v>
       </c>
       <c r="B4" s="2">
-        <v>5.55</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6.7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9.31</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="E4" s="2">
+        <v>17.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>10.89</v>
+        <v>53.26</v>
       </c>
       <c r="B5" s="2">
-        <v>6.44</v>
+        <v>4.83</v>
       </c>
       <c r="C5" s="2">
-        <v>15.92</v>
+        <v>200.59</v>
       </c>
       <c r="D5" s="2">
-        <v>11.79</v>
+        <v>10.41</v>
       </c>
       <c r="E5" s="2">
-        <v>24.61</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>43.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>52.08</v>
+        <v>4.63</v>
       </c>
       <c r="B6" s="2">
-        <v>6.7</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="C6" s="2">
-        <v>9.31</v>
+        <v>14.56</v>
       </c>
       <c r="D6" s="2">
-        <v>8.8800000000000008</v>
+        <v>17.43</v>
       </c>
       <c r="E6" s="2">
-        <v>17.34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>53.26</v>
+        <v>17.14</v>
       </c>
       <c r="B7" s="2">
-        <v>4.83</v>
+        <v>7.77</v>
       </c>
       <c r="C7" s="2">
-        <v>200.59</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="D7" s="2">
-        <v>10.41</v>
+        <v>199.61</v>
       </c>
       <c r="E7" s="2">
-        <v>43.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>4.63</v>
+        <v>45.45</v>
       </c>
       <c r="B8" s="2">
-        <v>4.2699999999999996</v>
+        <v>6.92</v>
       </c>
       <c r="C8" s="2">
-        <v>14.56</v>
+        <v>9.84</v>
       </c>
       <c r="D8" s="2">
-        <v>17.43</v>
+        <v>6.59</v>
       </c>
       <c r="E8" s="2">
-        <v>21.43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>17.14</v>
+        <v>37.68</v>
       </c>
       <c r="B9" s="2">
-        <v>7.77</v>
+        <v>11.58</v>
       </c>
       <c r="C9" s="2">
-        <v>4.5199999999999996</v>
+        <v>21.84</v>
       </c>
       <c r="D9" s="2">
-        <v>199.61</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="E9" s="2">
-        <v>15.85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>27.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>7.08</v>
-      </c>
-      <c r="B10" s="2">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>33.4</v>
+      </c>
+      <c r="B10" s="4">
+        <v>13.56</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6.23</v>
+      </c>
+      <c r="D10" s="2">
+        <v>11.56</v>
+      </c>
+      <c r="E10" s="2">
+        <v>37.840000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>21.33</v>
+        <v>26.2</v>
       </c>
       <c r="B11" s="2">
-        <v>5.42</v>
+        <v>16.09</v>
       </c>
       <c r="C11" s="2">
-        <v>67.7</v>
+        <v>8.5</v>
       </c>
       <c r="D11" s="2">
-        <v>11.32</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6.35</v>
+      </c>
+      <c r="E11" s="2">
+        <v>25.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>42.92</v>
+        <v>6.34</v>
       </c>
       <c r="B12" s="2">
-        <v>3.95</v>
+        <v>5.46</v>
       </c>
       <c r="C12" s="2">
-        <v>23.09</v>
+        <v>4.88</v>
       </c>
       <c r="D12" s="2">
-        <v>8.17</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2">
+        <v>22.93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>21.68</v>
+        <v>7.42</v>
       </c>
       <c r="B13" s="2">
-        <v>5.92</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23.15</v>
+      </c>
+      <c r="D13" s="2">
+        <v>24.29</v>
+      </c>
+      <c r="E13" s="2">
+        <v>40.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>45.45</v>
+        <v>22.26</v>
       </c>
       <c r="B14" s="2">
-        <v>6.92</v>
+        <v>4.72</v>
       </c>
       <c r="C14" s="2">
-        <v>9.84</v>
+        <v>5.28</v>
       </c>
       <c r="D14" s="2">
-        <v>6.59</v>
+        <v>14.01</v>
       </c>
       <c r="E14" s="2">
-        <v>17.03</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>37.68</v>
+        <v>12.71</v>
       </c>
       <c r="B15" s="2">
-        <v>11.58</v>
+        <v>25.84</v>
       </c>
       <c r="C15" s="2">
-        <v>21.84</v>
+        <v>17.88</v>
       </c>
       <c r="D15" s="2">
-        <v>34.380000000000003</v>
+        <v>15.37</v>
       </c>
       <c r="E15" s="2">
-        <v>27.52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>33.4</v>
-      </c>
-      <c r="B16" s="4">
-        <v>13.56</v>
-      </c>
-      <c r="C16" s="2">
-        <v>6.23</v>
+        <v>14.36</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3.59</v>
+      </c>
+      <c r="C16" s="3">
+        <v>13.47</v>
       </c>
       <c r="D16" s="2">
-        <v>11.56</v>
+        <v>12.43</v>
       </c>
       <c r="E16" s="2">
-        <v>37.840000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8.14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
-        <v>26.2</v>
+        <v>13.53</v>
       </c>
       <c r="B17" s="2">
-        <v>16.09</v>
+        <v>3.07</v>
       </c>
       <c r="C17" s="2">
-        <v>8.5</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="D17" s="2">
-        <v>6.35</v>
+        <v>8.33</v>
       </c>
       <c r="E17" s="2">
-        <v>25.15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24.69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>32.880000000000003</v>
+        <v>5.77</v>
       </c>
       <c r="B18" s="2">
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7.11</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="D18" s="2">
+        <v>10.06</v>
+      </c>
+      <c r="E18" s="2">
+        <v>27.44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
-        <v>10.01</v>
+        <v>20.36</v>
       </c>
       <c r="B19" s="2">
-        <v>13.85</v>
+        <v>64.12</v>
       </c>
       <c r="C19" s="2">
-        <v>14.11</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="D19" s="2">
+        <v>16.16</v>
+      </c>
+      <c r="E19" s="2">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>6.34</v>
+        <v>15.21</v>
       </c>
       <c r="B20" s="2">
-        <v>5.46</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="C20" s="2">
-        <v>4.88</v>
+        <v>10.66</v>
       </c>
       <c r="D20" s="2">
-        <v>13</v>
+        <v>68.64</v>
       </c>
       <c r="E20" s="2">
-        <v>22.93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18.61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
-        <v>7.42</v>
+        <v>29.17</v>
       </c>
       <c r="B21" s="2">
-        <v>12</v>
+        <v>5.94</v>
       </c>
       <c r="C21" s="2">
-        <v>23.15</v>
+        <v>5.38</v>
       </c>
       <c r="D21" s="2">
-        <v>24.29</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="E21" s="2">
-        <v>40.99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>22.26</v>
+        <v>121.68</v>
       </c>
       <c r="B22" s="2">
-        <v>4.72</v>
+        <v>3.27</v>
       </c>
       <c r="C22" s="2">
-        <v>5.28</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="D22" s="2">
-        <v>14.01</v>
+        <v>152.81</v>
       </c>
       <c r="E22" s="2">
-        <v>13.35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>127.26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
-        <v>12.71</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="B23" s="2">
-        <v>25.84</v>
+        <v>3.04</v>
       </c>
       <c r="C23" s="2">
-        <v>17.88</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="D23" s="2">
-        <v>15.37</v>
+        <v>8.9</v>
       </c>
       <c r="E23" s="2">
-        <v>6.24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>70.62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
-        <v>14.36</v>
+        <v>32.380000000000003</v>
       </c>
       <c r="B24" s="2">
-        <v>3.59</v>
-      </c>
-      <c r="C24" s="3">
-        <v>13.47</v>
+        <v>6.47</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10.93</v>
       </c>
       <c r="D24" s="2">
-        <v>12.43</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="E24" s="2">
-        <v>8.14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
-        <v>13.53</v>
+        <v>5.4</v>
       </c>
       <c r="B25" s="2">
-        <v>3.07</v>
+        <v>20.64</v>
       </c>
       <c r="C25" s="2">
-        <v>4.1900000000000004</v>
+        <v>12.52</v>
       </c>
       <c r="D25" s="2">
-        <v>8.33</v>
+        <v>9.34</v>
       </c>
       <c r="E25" s="2">
-        <v>24.69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>94.52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
-        <v>5.77</v>
+        <v>27.84</v>
       </c>
       <c r="B26" s="2">
-        <v>7.11</v>
+        <v>8.83</v>
       </c>
       <c r="C26" s="2">
-        <v>4.8099999999999996</v>
+        <v>19.95</v>
       </c>
       <c r="D26" s="2">
-        <v>10.06</v>
+        <v>45.96</v>
       </c>
       <c r="E26" s="2">
-        <v>27.44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32.32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
-        <v>3.89</v>
+        <v>58</v>
       </c>
       <c r="B27" s="2">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="C27" s="2">
-        <v>38.36</v>
+        <v>4.34</v>
       </c>
       <c r="D27" s="2">
-        <v>11.81</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5.71</v>
+      </c>
+      <c r="E27" s="2">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
-        <v>10.57</v>
+        <v>10.82</v>
       </c>
       <c r="B28" s="2">
-        <v>19.27</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21.02</v>
+      </c>
+      <c r="C28" s="2">
+        <v>9.58</v>
+      </c>
+      <c r="D28" s="2">
+        <v>11.05</v>
+      </c>
+      <c r="E28" s="2">
+        <v>15.56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
-        <v>12.4</v>
+        <v>28.84</v>
       </c>
       <c r="B29" s="2">
-        <v>4.1399999999999997</v>
+        <v>5.25</v>
       </c>
       <c r="C29" s="2">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>20.36</v>
-      </c>
-      <c r="B30" s="2">
-        <v>64.12</v>
-      </c>
-      <c r="C30" s="2">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="D30" s="2">
-        <v>16.16</v>
-      </c>
-      <c r="E30" s="2">
-        <v>16.86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>15.21</v>
-      </c>
-      <c r="B31" s="2">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="C31" s="2">
-        <v>10.66</v>
-      </c>
-      <c r="D31" s="2">
-        <v>68.64</v>
-      </c>
-      <c r="E31" s="2">
-        <v>18.61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>23.76</v>
-      </c>
-      <c r="B32" s="2">
-        <v>9.51</v>
-      </c>
-      <c r="C32" s="2">
-        <v>14.12</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>29.17</v>
-      </c>
-      <c r="B33" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="C33" s="2">
-        <v>5.38</v>
-      </c>
-      <c r="D33" s="2">
-        <v>9.4600000000000009</v>
-      </c>
-      <c r="E33" s="2">
-        <v>32.299999999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>121.68</v>
-      </c>
-      <c r="B34" s="2">
-        <v>3.27</v>
-      </c>
-      <c r="C34" s="2">
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="D34" s="2">
-        <v>152.81</v>
-      </c>
-      <c r="E34" s="2">
-        <v>127.26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="B35" s="2">
-        <v>3.04</v>
-      </c>
-      <c r="C35" s="2">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="D35" s="2">
-        <v>8.9</v>
-      </c>
-      <c r="E35" s="2">
-        <v>70.62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>32.380000000000003</v>
-      </c>
-      <c r="B36" s="2">
-        <v>6.47</v>
-      </c>
-      <c r="C36" s="2">
-        <v>10.93</v>
-      </c>
-      <c r="D36" s="2">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="E36" s="2">
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="B37" s="2">
-        <v>20.64</v>
-      </c>
-      <c r="C37" s="2">
-        <v>12.52</v>
-      </c>
-      <c r="D37" s="2">
-        <v>9.34</v>
-      </c>
-      <c r="E37" s="2">
-        <v>94.52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>27.84</v>
-      </c>
-      <c r="B38" s="2">
-        <v>8.83</v>
-      </c>
-      <c r="C38" s="2">
-        <v>19.95</v>
-      </c>
-      <c r="D38" s="2">
-        <v>45.96</v>
-      </c>
-      <c r="E38" s="2">
-        <v>32.32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>8.11</v>
-      </c>
-      <c r="B39" s="2">
-        <v>37.07</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>58</v>
-      </c>
-      <c r="B40" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="C40" s="2">
-        <v>4.34</v>
-      </c>
-      <c r="D40" s="2">
-        <v>5.71</v>
-      </c>
-      <c r="E40" s="2">
-        <v>12.01</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>10.82</v>
-      </c>
-      <c r="B41" s="2">
-        <v>21.02</v>
-      </c>
-      <c r="C41" s="2">
-        <v>9.58</v>
-      </c>
-      <c r="D41" s="2">
-        <v>11.05</v>
-      </c>
-      <c r="E41" s="2">
-        <v>15.56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>28.84</v>
-      </c>
-      <c r="B42" s="2">
-        <v>5.25</v>
-      </c>
-      <c r="C42" s="2">
         <v>9.66</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D29" s="2">
         <v>10.47</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E29" s="2">
         <v>23</v>
       </c>
     </row>
